--- a/opContinua.xlsx
+++ b/opContinua.xlsx
@@ -8,32 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielT\Documents\9no\Metaheuristica\optimizacion-continua\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3652B302-BEA9-4EE5-994F-0919D1F9856A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F16CB8-B406-45FA-800D-1B4C431B9C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8460" yWindow="4185" windowWidth="17175" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Continua" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
-  <si>
-    <t>Optiomizacion continua</t>
-  </si>
-  <si>
-    <t>Ascenso de la colina con remplazo</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+  <si>
+    <t>Ascenso de la colina</t>
   </si>
   <si>
     <t>Algoritmo modificado</t>
   </si>
   <si>
-    <t xml:space="preserve">Ascenso a la colina </t>
-  </si>
-  <si>
     <t>Media</t>
   </si>
   <si>
@@ -62,14 +67,32 @@
   </si>
   <si>
     <t>Griewank</t>
+  </si>
+  <si>
+    <t>Ackley</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>Optiomización 
+continua</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -85,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -93,19 +116,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,343 +452,336 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:P7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="17.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B3" s="7">
+        <v>40.376071829012773</v>
+      </c>
+      <c r="C3" s="7">
+        <v>107.96782174246491</v>
+      </c>
+      <c r="D3" s="7">
+        <v>521.46237819717703</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.57787611751225032</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.41402482986450201</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.94493399809417</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.36085624742412398</v>
+      </c>
+      <c r="I3" s="7">
+        <v>2.0004237925203672</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.44504643305388603</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1.044028043746948</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" s="7">
+        <v>2410.166666666667</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2163.1567377844399</v>
+      </c>
+      <c r="D4" s="7">
+        <v>9150</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.47162032127380371</v>
+      </c>
+      <c r="G4" s="7">
+        <v>96.233333333333334</v>
+      </c>
+      <c r="H4" s="7">
+        <v>253.8742055078109</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1224</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1.109997034072876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>28314.435707596069</v>
-      </c>
-      <c r="C3">
-        <v>7200.0525342544006</v>
-      </c>
-      <c r="D3">
-        <v>48513.50289344052</v>
-      </c>
-      <c r="E3">
-        <v>15504.53347718499</v>
-      </c>
-      <c r="F3">
-        <v>0.41790509223937988</v>
-      </c>
-      <c r="G3">
-        <v>27110.99935740072</v>
-      </c>
-      <c r="H3">
-        <v>7229.2955570606118</v>
-      </c>
-      <c r="I3">
-        <v>43159.75429163938</v>
-      </c>
-      <c r="J3">
-        <v>14782.52427794695</v>
-      </c>
-      <c r="K3">
-        <v>0.55570244789123535</v>
-      </c>
-      <c r="L3" s="3">
-        <v>40.376071829012773</v>
-      </c>
-      <c r="M3" s="3">
-        <v>107.96782174246491</v>
-      </c>
-      <c r="N3" s="3">
-        <v>521.46237819717703</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0.57787611751225032</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0.41369891166687012</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" s="7">
+        <v>986.4884225786451</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1067.0418582618511</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3745.743155231753</v>
+      </c>
+      <c r="E5" s="7">
+        <v>9.6362138054686266</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1.6869938373565669</v>
+      </c>
+      <c r="G5" s="7">
+        <v>940.38401545397619</v>
+      </c>
+      <c r="H5" s="7">
+        <v>902.85212455369003</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2916.32974057402</v>
+      </c>
+      <c r="J5" s="7">
+        <v>35.737572067020722</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2.3400275707244869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>28796.333333333328</v>
-      </c>
-      <c r="C4">
-        <v>7318.0319181837103</v>
-      </c>
-      <c r="D4">
-        <v>49290</v>
-      </c>
-      <c r="E4">
-        <v>15865</v>
-      </c>
-      <c r="F4">
-        <v>0.47487044334411621</v>
-      </c>
-      <c r="G4">
-        <v>27303.5</v>
-      </c>
-      <c r="H4">
-        <v>7289.2592067598562</v>
-      </c>
-      <c r="I4">
-        <v>43310</v>
-      </c>
-      <c r="J4">
-        <v>14745</v>
-      </c>
-      <c r="K4">
-        <v>0.5851590633392334</v>
-      </c>
-      <c r="L4" s="3">
-        <v>2410.166666666667</v>
-      </c>
-      <c r="M4" s="3">
-        <v>2163.1567377844399</v>
-      </c>
-      <c r="N4" s="3">
-        <v>9150</v>
-      </c>
-      <c r="O4" s="3">
-        <v>2</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0.4866936206817627</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" s="7">
+        <v>97.346862903078801</v>
+      </c>
+      <c r="C6" s="7">
+        <v>24.94198275700462</v>
+      </c>
+      <c r="D6" s="7">
+        <v>156.2528664949248</v>
+      </c>
+      <c r="E6" s="7">
+        <v>53.882594421247418</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.51000213623046875</v>
+      </c>
+      <c r="G6" s="7">
+        <v>59.287360177780798</v>
+      </c>
+      <c r="H6" s="7">
+        <v>9.8174035238969388</v>
+      </c>
+      <c r="I6" s="7">
+        <v>79.527606271736431</v>
+      </c>
+      <c r="J6" s="7">
+        <v>43.44005083996894</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1.1745765209198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>191825.86442656521</v>
-      </c>
-      <c r="C5">
-        <v>191062.073342377</v>
-      </c>
-      <c r="D5">
-        <v>729291.68469391624</v>
-      </c>
-      <c r="E5">
-        <v>25129.01745231028</v>
-      </c>
-      <c r="F5">
-        <v>0.7355954647064209</v>
-      </c>
-      <c r="G5">
-        <v>94162.360193058485</v>
-      </c>
-      <c r="H5">
-        <v>107211.6586012411</v>
-      </c>
-      <c r="I5">
-        <v>485996.45168869279</v>
-      </c>
-      <c r="J5">
-        <v>9959.1736568156975</v>
-      </c>
-      <c r="K5">
-        <v>0.82494354248046875</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1348.2822805628259</v>
-      </c>
-      <c r="M5" s="3">
-        <v>1117.6996723226421</v>
-      </c>
-      <c r="N5" s="3">
-        <v>3960.4886909551528</v>
-      </c>
-      <c r="O5" s="3">
-        <v>40.714853160377857</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0.70569872856140137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7" s="7">
+        <v>194.66414609691901</v>
+      </c>
+      <c r="C7" s="7">
+        <v>56.712939366375032</v>
+      </c>
+      <c r="D7" s="7">
+        <v>353.57959559054189</v>
+      </c>
+      <c r="E7" s="7">
+        <v>89.841605317128156</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1.1280004978179929</v>
+      </c>
+      <c r="G7" s="7">
+        <v>170.67337266078599</v>
+      </c>
+      <c r="H7" s="7">
+        <v>51.786787214049781</v>
+      </c>
+      <c r="I7" s="7">
+        <v>321.49114972682082</v>
+      </c>
+      <c r="J7" s="7">
+        <v>80.08493106663866</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1.756999015808105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>106.45117924706069</v>
-      </c>
-      <c r="C6">
-        <v>20.36869508682307</v>
-      </c>
-      <c r="D6">
-        <v>152.1610434391238</v>
-      </c>
-      <c r="E6">
-        <v>77.037096523587053</v>
-      </c>
-      <c r="F6">
-        <v>0.54410171508789063</v>
-      </c>
-      <c r="G6">
-        <v>95.030024858999056</v>
-      </c>
-      <c r="H6">
-        <v>19.85731996100083</v>
-      </c>
-      <c r="I6">
-        <v>139.65442914413501</v>
-      </c>
-      <c r="J6">
-        <v>43.348393980461559</v>
-      </c>
-      <c r="K6">
-        <v>0.7063133716583252</v>
-      </c>
-      <c r="L6" s="3">
-        <v>97.346862903078801</v>
-      </c>
-      <c r="M6" s="3">
-        <v>24.94198275700462</v>
-      </c>
-      <c r="N6" s="3">
-        <v>156.2528664949248</v>
-      </c>
-      <c r="O6" s="3">
-        <v>53.882594421247418</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0.52263188362121582</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B8" s="7">
+        <v>20.205368601521968</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.30430119111867182</v>
+      </c>
+      <c r="D8" s="7">
+        <v>20.679569983126608</v>
+      </c>
+      <c r="E8" s="7">
+        <v>19.293999812903699</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.97757768630981445</v>
+      </c>
+      <c r="G8" s="7">
+        <v>4.0250427475378361</v>
+      </c>
+      <c r="H8" s="7">
+        <v>4.6956542996374742</v>
+      </c>
+      <c r="I8" s="7">
+        <v>18.1741546415454</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1.5720003674000369</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1.6320245265960689</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
-        <v>-170.4487401385995</v>
-      </c>
-      <c r="C7">
-        <v>380.57147489690573</v>
-      </c>
-      <c r="D7">
-        <v>352.79179267124681</v>
-      </c>
-      <c r="E7">
-        <v>-719.17048889134105</v>
-      </c>
-      <c r="F7">
-        <v>1.293127059936523</v>
-      </c>
-      <c r="G7">
-        <v>245.99258812470509</v>
-      </c>
-      <c r="H7">
-        <v>131.98564492151829</v>
-      </c>
-      <c r="I7">
-        <v>432.40958446121238</v>
-      </c>
-      <c r="J7">
-        <v>-147.01355909210261</v>
-      </c>
-      <c r="K7">
-        <v>1.344301223754883</v>
-      </c>
-      <c r="L7" s="3">
-        <v>-689.06810604623399</v>
-      </c>
-      <c r="M7" s="3">
-        <v>72.91861037416453</v>
-      </c>
-      <c r="N7" s="3">
-        <v>-493.96797158311477</v>
-      </c>
-      <c r="O7" s="3">
-        <v>-834.01253784187054</v>
-      </c>
-      <c r="P7" s="3">
-        <v>1.3100795745849609</v>
+      <c r="B9" s="6">
+        <f>AVERAGE(B3:B8)</f>
+        <v>624.87458977930748</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" ref="C9:K9" si="0">AVERAGE(C3:C8)</f>
+        <v>570.02094018387572</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>2324.619594249587</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>29.205381579043362</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.86470321814219142</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="0"/>
+        <v>211.9246763952514</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="0"/>
+        <v>203.89783855775156</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="0"/>
+        <v>760.25384583444031</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="0"/>
+        <v>26.879933462347044</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="0"/>
+        <v>1.5096087853113811</v>
       </c>
     </row>
   </sheetData>
@@ -755,5 +792,6 @@
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/opContinua.xlsx
+++ b/opContinua.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielT\Documents\9no\Metaheuristica\optimizacion-continua\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F16CB8-B406-45FA-800D-1B4C431B9C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B37FB5-B1B8-48E1-BABF-4B4B5EF697AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="4185" windowWidth="17175" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Continua" sheetId="1" r:id="rId1"/>
@@ -137,19 +137,19 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,7 +455,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,313 +473,313 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>40.376071829012773</v>
+      </c>
+      <c r="C3" s="3">
+        <v>107.96782174246491</v>
+      </c>
+      <c r="D3" s="3">
+        <v>521.46237819717703</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.57787611751225032</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.41402482986450201</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.94493399809417</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.36085624742412398</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2.0004237925203672</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.44504643305388603</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1.044028043746948</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2410.166666666667</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2163.1567377844399</v>
+      </c>
+      <c r="D4" s="3">
+        <v>9150</v>
+      </c>
+      <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="7">
-        <v>40.376071829012773</v>
-      </c>
-      <c r="C3" s="7">
-        <v>107.96782174246491</v>
-      </c>
-      <c r="D3" s="7">
-        <v>521.46237819717703</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.57787611751225032</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0.41402482986450201</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0.94493399809417</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0.36085624742412398</v>
-      </c>
-      <c r="I3" s="7">
-        <v>2.0004237925203672</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0.44504643305388603</v>
-      </c>
-      <c r="K3" s="7">
-        <v>1.044028043746948</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="7">
-        <v>2410.166666666667</v>
-      </c>
-      <c r="C4" s="7">
-        <v>2163.1567377844399</v>
-      </c>
-      <c r="D4" s="7">
-        <v>9150</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="F4" s="3">
         <v>0.47162032127380371</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="3">
         <v>96.233333333333334</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="3">
         <v>253.8742055078109</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="3">
         <v>1224</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="3">
         <v>0</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="3">
         <v>1.109997034072876</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="3">
         <v>986.4884225786451</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <v>1067.0418582618511</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="3">
         <v>3745.743155231753</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="3">
         <v>9.6362138054686266</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="3">
         <v>1.6869938373565669</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="3">
         <v>940.38401545397619</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="3">
         <v>902.85212455369003</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="3">
         <v>2916.32974057402</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="3">
         <v>35.737572067020722</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="3">
         <v>2.3400275707244869</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="3">
         <v>97.346862903078801</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="3">
         <v>24.94198275700462</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="3">
         <v>156.2528664949248</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="3">
         <v>53.882594421247418</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="3">
         <v>0.51000213623046875</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="3">
         <v>59.287360177780798</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="3">
         <v>9.8174035238969388</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="3">
         <v>79.527606271736431</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="3">
         <v>43.44005083996894</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="3">
         <v>1.1745765209198</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="3">
         <v>194.66414609691901</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="3">
         <v>56.712939366375032</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="3">
         <v>353.57959559054189</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="3">
         <v>89.841605317128156</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="3">
         <v>1.1280004978179929</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="3">
         <v>170.67337266078599</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="3">
         <v>51.786787214049781</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="3">
         <v>321.49114972682082</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="3">
         <v>80.08493106663866</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="3">
         <v>1.756999015808105</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="3">
         <v>20.205368601521968</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <v>0.30430119111867182</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="3">
         <v>20.679569983126608</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="3">
         <v>19.293999812903699</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="3">
         <v>0.97757768630981445</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="3">
         <v>4.0250427475378361</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="3">
         <v>4.6956542996374742</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="3">
         <v>18.1741546415454</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="3">
         <v>1.5720003674000369</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="3">
         <v>1.6320245265960689</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="2">
         <f>AVERAGE(B3:B8)</f>
         <v>624.87458977930748</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="2">
         <f t="shared" ref="C9:K9" si="0">AVERAGE(C3:C8)</f>
         <v>570.02094018387572</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>2324.619594249587</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>29.205381579043362</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>0.86470321814219142</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
         <v>211.9246763952514</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="2">
         <f t="shared" si="0"/>
         <v>203.89783855775156</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
         <v>760.25384583444031</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
         <v>26.879933462347044</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="2">
         <f t="shared" si="0"/>
         <v>1.5096087853113811</v>
       </c>
